--- a/matlabCode/operantMatching/rapheCells.xlsx
+++ b/matlabCode/operantMatching/rapheCells.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cooper_PC\Desktop\githubRepositories\cooperAnalysis\matlabCode\operantMatching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{14165CE2-7B90-43FC-A5D1-24DA9E58A44B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E94F84D-1623-4105-BCC9-7F122813DFC1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="9795" activeTab="3" xr2:uid="{C875B9D2-BE50-479A-B5B6-D51325BBC6D4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="9795" activeTab="4" xr2:uid="{C875B9D2-BE50-479A-B5B6-D51325BBC6D4}"/>
   </bookViews>
   <sheets>
     <sheet name="5ht" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="meow" sheetId="5" r:id="rId5"/>
     <sheet name="mice" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="92">
   <si>
     <t>mCG09d20170308</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>revForFlag</t>
+  </si>
+  <si>
+    <t>lick spout registering spikes immediately after CS on many trials</t>
+  </si>
+  <si>
+    <t>trialB</t>
+  </si>
+  <si>
+    <t>trialE</t>
   </si>
 </sst>
 </file>
@@ -312,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +331,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -349,6 +364,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0301FA-2816-470E-86C5-17B5945C6470}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,9 +697,11 @@
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -687,8 +711,14 @@
       <c r="C1" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -699,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -709,8 +739,17 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -720,8 +759,11 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -732,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -743,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -754,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -765,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -776,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -787,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -798,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -809,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -820,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -831,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -842,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -907,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB35071-C80D-42A9-90BA-55DB28FAF71E}">
   <dimension ref="A1:C212"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176:XFD176"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,7 +1611,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
         <v>51</v>
@@ -3261,7 +3303,7 @@
   <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5402,2128 +5444,2282 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2595D37C-1498-4C2E-A627-1A428488BE02}">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179:C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="17" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B67" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B73" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C92" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C99" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C100" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C101" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C102" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C103" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C104" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B109" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C110" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C112" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C113" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C114" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C119" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B120" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C120" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C122" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C124" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C125" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C127" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C128" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C129" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C130" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C131" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C132" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C133" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C134" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C135" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C136" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C137" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C138" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C139" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C140" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C141" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C142" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C143" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C144" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C145" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C146" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C147" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C148" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C149" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C150" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B151" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C151" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C152" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C153" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C154" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C155" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C156" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C157" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C158" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C159" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C160" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C161" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C162" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C163" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C164" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C165" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C166" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B167" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C167" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C168" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C169" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C170" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C171" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C172" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C173" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C174" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C175" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B176" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C176" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C177" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C178" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C196" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C197" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B198" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C204" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B205" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C205" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>30</v>
-      </c>
-      <c r="B68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C68" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>19</v>
-      </c>
-      <c r="B74" t="s">
-        <v>58</v>
-      </c>
-      <c r="C74" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>29</v>
-      </c>
-      <c r="B76" t="s">
-        <v>59</v>
-      </c>
-      <c r="C76" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" t="s">
-        <v>59</v>
-      </c>
-      <c r="C77" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>18</v>
-      </c>
-      <c r="B78" t="s">
-        <v>59</v>
-      </c>
-      <c r="C78" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>45</v>
-      </c>
-      <c r="B79" t="s">
-        <v>59</v>
-      </c>
-      <c r="C79" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>29</v>
-      </c>
-      <c r="B80" t="s">
-        <v>60</v>
-      </c>
-      <c r="C80" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" t="s">
-        <v>60</v>
-      </c>
-      <c r="C82" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>52</v>
-      </c>
-      <c r="B84" t="s">
-        <v>60</v>
-      </c>
-      <c r="C84" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" t="s">
-        <v>61</v>
-      </c>
-      <c r="C85" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" t="s">
-        <v>61</v>
-      </c>
-      <c r="C86" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87" t="s">
-        <v>61</v>
-      </c>
-      <c r="C87" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" t="s">
-        <v>61</v>
-      </c>
-      <c r="C88" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>45</v>
-      </c>
-      <c r="B89" t="s">
-        <v>61</v>
-      </c>
-      <c r="C89" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>52</v>
-      </c>
-      <c r="B90" t="s">
-        <v>61</v>
-      </c>
-      <c r="C90" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>29</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>30</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>36</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>37</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>29</v>
-      </c>
-      <c r="B96" t="s">
-        <v>62</v>
-      </c>
-      <c r="C96" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" t="s">
-        <v>62</v>
-      </c>
-      <c r="C97" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>45</v>
-      </c>
-      <c r="B98" t="s">
-        <v>62</v>
-      </c>
-      <c r="C98" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>29</v>
-      </c>
-      <c r="B99" t="s">
-        <v>63</v>
-      </c>
-      <c r="C99" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" t="s">
-        <v>63</v>
-      </c>
-      <c r="C100" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>19</v>
-      </c>
-      <c r="B101" t="s">
-        <v>63</v>
-      </c>
-      <c r="C101" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>45</v>
-      </c>
-      <c r="B102" t="s">
-        <v>63</v>
-      </c>
-      <c r="C102" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>52</v>
-      </c>
-      <c r="B103" t="s">
-        <v>63</v>
-      </c>
-      <c r="C103" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>20</v>
-      </c>
-      <c r="B104" t="s">
-        <v>63</v>
-      </c>
-      <c r="C104" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" t="s">
-        <v>64</v>
-      </c>
-      <c r="C105" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>36</v>
-      </c>
-      <c r="B106" t="s">
-        <v>64</v>
-      </c>
-      <c r="C106" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>45</v>
-      </c>
-      <c r="B107" t="s">
-        <v>64</v>
-      </c>
-      <c r="C107" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>52</v>
-      </c>
-      <c r="B108" t="s">
-        <v>64</v>
-      </c>
-      <c r="C108" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>29</v>
-      </c>
-      <c r="B109" t="s">
-        <v>65</v>
-      </c>
-      <c r="C109" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" t="s">
-        <v>65</v>
-      </c>
-      <c r="C110" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>36</v>
-      </c>
-      <c r="B111" t="s">
-        <v>65</v>
-      </c>
-      <c r="C111" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>45</v>
-      </c>
-      <c r="B112" t="s">
-        <v>65</v>
-      </c>
-      <c r="C112" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>20</v>
-      </c>
-      <c r="B113" t="s">
-        <v>65</v>
-      </c>
-      <c r="C113" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" t="s">
-        <v>67</v>
-      </c>
-      <c r="C114" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>14</v>
-      </c>
-      <c r="B115" t="s">
-        <v>67</v>
-      </c>
-      <c r="C115" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>66</v>
-      </c>
-      <c r="B116" t="s">
-        <v>67</v>
-      </c>
-      <c r="C116" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>45</v>
-      </c>
-      <c r="B117" t="s">
-        <v>67</v>
-      </c>
-      <c r="C117" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>20</v>
-      </c>
-      <c r="B118" t="s">
-        <v>67</v>
-      </c>
-      <c r="C118" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>16</v>
-      </c>
-      <c r="B119" t="s">
-        <v>67</v>
-      </c>
-      <c r="C119" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>13</v>
-      </c>
-      <c r="B120" t="s">
-        <v>69</v>
-      </c>
-      <c r="C120" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>14</v>
-      </c>
-      <c r="B121" t="s">
-        <v>69</v>
-      </c>
-      <c r="C121" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>66</v>
-      </c>
-      <c r="B122" t="s">
-        <v>69</v>
-      </c>
-      <c r="C122" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>20</v>
-      </c>
-      <c r="B123" t="s">
-        <v>69</v>
-      </c>
-      <c r="C123" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>16</v>
-      </c>
-      <c r="B124" t="s">
-        <v>69</v>
-      </c>
-      <c r="C124" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>68</v>
-      </c>
-      <c r="B125" t="s">
-        <v>69</v>
-      </c>
-      <c r="C125" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>29</v>
-      </c>
-      <c r="B126" t="s">
-        <v>70</v>
-      </c>
-      <c r="C126" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>20</v>
-      </c>
-      <c r="B127" t="s">
-        <v>70</v>
-      </c>
-      <c r="C127" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>20</v>
-      </c>
-      <c r="B128" t="s">
-        <v>71</v>
-      </c>
-      <c r="C128" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>19</v>
-      </c>
-      <c r="B129" t="s">
-        <v>72</v>
-      </c>
-      <c r="C129" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>20</v>
-      </c>
-      <c r="B130" t="s">
-        <v>72</v>
-      </c>
-      <c r="C130" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>36</v>
-      </c>
-      <c r="B131" t="s">
-        <v>73</v>
-      </c>
-      <c r="C131" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>20</v>
-      </c>
-      <c r="B132" t="s">
-        <v>73</v>
-      </c>
-      <c r="C132" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>68</v>
-      </c>
-      <c r="B133" t="s">
-        <v>73</v>
-      </c>
-      <c r="C133" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>29</v>
-      </c>
-      <c r="B134" t="s">
-        <v>74</v>
-      </c>
-      <c r="C134" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>13</v>
-      </c>
-      <c r="B135" t="s">
-        <v>74</v>
-      </c>
-      <c r="C135" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>36</v>
-      </c>
-      <c r="B136" t="s">
-        <v>74</v>
-      </c>
-      <c r="C136" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>37</v>
-      </c>
-      <c r="B137" t="s">
-        <v>74</v>
-      </c>
-      <c r="C137" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>45</v>
-      </c>
-      <c r="B138" t="s">
-        <v>74</v>
-      </c>
-      <c r="C138" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>52</v>
-      </c>
-      <c r="B139" t="s">
-        <v>74</v>
-      </c>
-      <c r="C139" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>20</v>
-      </c>
-      <c r="B140" t="s">
-        <v>74</v>
-      </c>
-      <c r="C140" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>16</v>
-      </c>
-      <c r="B141" t="s">
-        <v>74</v>
-      </c>
-      <c r="C141" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>68</v>
-      </c>
-      <c r="B142" t="s">
-        <v>74</v>
-      </c>
-      <c r="C142" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>45</v>
-      </c>
-      <c r="B143" t="s">
-        <v>75</v>
-      </c>
-      <c r="C143" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>20</v>
-      </c>
-      <c r="B144" t="s">
-        <v>75</v>
-      </c>
-      <c r="C144" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>68</v>
-      </c>
-      <c r="B145" t="s">
-        <v>75</v>
-      </c>
-      <c r="C145" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>36</v>
-      </c>
-      <c r="B146" t="s">
-        <v>76</v>
-      </c>
-      <c r="C146" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>37</v>
-      </c>
-      <c r="B147" t="s">
-        <v>76</v>
-      </c>
-      <c r="C147" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>68</v>
-      </c>
-      <c r="B148" t="s">
-        <v>76</v>
-      </c>
-      <c r="C148" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>36</v>
-      </c>
-      <c r="B149" t="s">
-        <v>77</v>
-      </c>
-      <c r="C149" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>68</v>
-      </c>
-      <c r="B150" t="s">
-        <v>77</v>
-      </c>
-      <c r="C150" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>36</v>
-      </c>
-      <c r="B151" t="s">
-        <v>78</v>
-      </c>
-      <c r="C151" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>45</v>
-      </c>
-      <c r="B152" t="s">
-        <v>78</v>
-      </c>
-      <c r="C152" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>29</v>
-      </c>
-      <c r="B153" t="s">
-        <v>79</v>
-      </c>
-      <c r="C153" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>36</v>
-      </c>
-      <c r="B154" t="s">
-        <v>79</v>
-      </c>
-      <c r="C154" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>45</v>
-      </c>
-      <c r="B155" t="s">
-        <v>79</v>
-      </c>
-      <c r="C155" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>20</v>
-      </c>
-      <c r="B156" t="s">
-        <v>79</v>
-      </c>
-      <c r="C156" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>36</v>
-      </c>
-      <c r="B157" t="s">
-        <v>80</v>
-      </c>
-      <c r="C157" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>19</v>
-      </c>
-      <c r="B158" t="s">
-        <v>80</v>
-      </c>
-      <c r="C158" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>45</v>
-      </c>
-      <c r="B159" t="s">
-        <v>80</v>
-      </c>
-      <c r="C159" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>20</v>
-      </c>
-      <c r="B160" t="s">
-        <v>80</v>
-      </c>
-      <c r="C160" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>29</v>
-      </c>
-      <c r="B161" t="s">
-        <v>81</v>
-      </c>
-      <c r="C161" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>13</v>
-      </c>
-      <c r="B162" t="s">
-        <v>81</v>
-      </c>
-      <c r="C162" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>36</v>
-      </c>
-      <c r="B163" t="s">
-        <v>81</v>
-      </c>
-      <c r="C163" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>45</v>
-      </c>
-      <c r="B164" t="s">
-        <v>81</v>
-      </c>
-      <c r="C164" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>13</v>
-      </c>
-      <c r="B165" t="s">
-        <v>2</v>
-      </c>
-      <c r="C165" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>20</v>
-      </c>
-      <c r="B166" t="s">
-        <v>2</v>
-      </c>
-      <c r="C166" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>16</v>
-      </c>
-      <c r="B167" t="s">
-        <v>2</v>
-      </c>
-      <c r="C167" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>18</v>
-      </c>
-      <c r="B168" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>20</v>
-      </c>
-      <c r="B169" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>16</v>
-      </c>
-      <c r="B170" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>18</v>
-      </c>
-      <c r="B171" t="s">
-        <v>4</v>
-      </c>
-      <c r="C171" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>36</v>
-      </c>
-      <c r="B172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C172" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>18</v>
-      </c>
-      <c r="B173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C173" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>20</v>
-      </c>
-      <c r="B174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C174" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>16</v>
-      </c>
-      <c r="B175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C175" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>68</v>
-      </c>
-      <c r="B176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C176" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>82</v>
-      </c>
-      <c r="B177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C177" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>83</v>
-      </c>
-      <c r="B178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C178" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>20</v>
-      </c>
-      <c r="B179" t="s">
-        <v>7</v>
-      </c>
-      <c r="C179" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>68</v>
-      </c>
-      <c r="B180" t="s">
-        <v>7</v>
-      </c>
-      <c r="C180" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>83</v>
-      </c>
-      <c r="B181" t="s">
-        <v>7</v>
-      </c>
-      <c r="C181" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>82</v>
-      </c>
-      <c r="B182" t="s">
-        <v>84</v>
-      </c>
-      <c r="C182" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>83</v>
-      </c>
-      <c r="B183" t="s">
-        <v>84</v>
-      </c>
-      <c r="C183" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>13</v>
-      </c>
-      <c r="B184" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>20</v>
-      </c>
-      <c r="B185" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>82</v>
-      </c>
-      <c r="B186" t="s">
-        <v>8</v>
-      </c>
-      <c r="C186" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>20</v>
-      </c>
-      <c r="B187" t="s">
-        <v>10</v>
-      </c>
-      <c r="C187" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>16</v>
-      </c>
-      <c r="B188" t="s">
-        <v>10</v>
-      </c>
-      <c r="C188" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>82</v>
-      </c>
-      <c r="B189" t="s">
-        <v>10</v>
-      </c>
-      <c r="C189" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>68</v>
-      </c>
-      <c r="B190" t="s">
-        <v>85</v>
-      </c>
-      <c r="C190" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>37</v>
-      </c>
-      <c r="B191" t="s">
+      <c r="B206" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C191" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>15</v>
-      </c>
-      <c r="B192" t="s">
-        <v>86</v>
-      </c>
-      <c r="C192" s="4">
+      <c r="C206" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7534,213 +7730,335 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5732C98A-C292-414B-A00C-F6257F396047}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="6">
         <v>0</v>
       </c>
     </row>
